--- a/energy_division_between_eshkolot-synthetic_values.xlsx
+++ b/energy_division_between_eshkolot-synthetic_values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxpo\OneDrive\Desktop\OPL_solver_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB4CBF9-8DAF-4DA4-905F-90CE1E8FA96A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8554C7F-BEBD-411E-97C2-35FEA42CEE04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -478,7 +478,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -494,7 +494,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -502,7 +502,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -510,7 +510,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -518,7 +518,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -526,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -534,7 +534,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
